--- a/quiz 3_to_11.xlsx
+++ b/quiz 3_to_11.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
-    <t>H T S Artificial course / Quiz and Answer</t>
+    <t>H T S  Artificial course / Quiz and Answer</t>
   </si>
   <si>
     <t xml:space="preserve">Questions </t>
@@ -103,7 +103,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1245,7 +1245,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1265,7 +1265,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,7 +1275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1283,6 +1283,12 @@
       <sz val="28"/>
       <color rgb="FF385724"/>
       <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1366,13 +1372,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1384,31 +1390,31 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1749,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="146.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="147">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="105">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="200.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="157.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
